--- a/CFO_BODYSEQ/documentation/CFO BODYSEQ 2 button version/BOM.xlsx
+++ b/CFO_BODYSEQ/documentation/CFO BODYSEQ 2 button version/BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>Reference</t>
   </si>
@@ -48,15 +48,9 @@
     <t>Lelon SEA101M1CBK-0607P (Radial (large) footprint)</t>
   </si>
   <si>
-    <t>D1, D7</t>
-  </si>
-  <si>
     <t>Panasonic LN842RPX</t>
   </si>
   <si>
-    <t>D2, D3, D4, D5, D6, D8, D9, D10</t>
-  </si>
-  <si>
     <t>D11</t>
   </si>
   <si>
@@ -81,21 +75,9 @@
     <t>TT Electronics P120PK-Y25BR10K</t>
   </si>
   <si>
-    <t>R11, R12, R13, R14, R15, R16, R17, R18</t>
-  </si>
-  <si>
     <t>Generic Resistor (10k)</t>
   </si>
   <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>Generic Resistor (10k) (Axial footprint)</t>
-  </si>
-  <si>
     <t>R21</t>
   </si>
   <si>
@@ -108,9 +90,6 @@
     <t>Generic Resistor (1k) (Axial footprint)</t>
   </si>
   <si>
-    <t>S1, S2</t>
-  </si>
-  <si>
     <t>ALPS SKRGAFD010</t>
   </si>
   <si>
@@ -153,15 +132,9 @@
     <t>color code: brown, black, red</t>
   </si>
   <si>
-    <t>color code: yellow, purple, orange</t>
-  </si>
-  <si>
     <t>tactile switches</t>
   </si>
   <si>
-    <t>resistor</t>
-  </si>
-  <si>
     <t>thumbwheel pot</t>
   </si>
   <si>
@@ -187,6 +160,15 @@
   </si>
   <si>
     <t>female pin header , 14 pins</t>
+  </si>
+  <si>
+    <t>R11, R12, R13, R14, R15, R16, R17, R18, R19, R20</t>
+  </si>
+  <si>
+    <t>S1, S2, S3</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4, D5, D6, D8, D9, D10</t>
   </si>
 </sst>
 </file>
@@ -283,9 +265,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -313,12 +297,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -649,10 +635,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -662,7 +651,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24">
@@ -676,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36">
@@ -690,7 +679,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="36">
@@ -704,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60">
@@ -718,38 +707,38 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="36">
       <c r="A6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="36">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -760,211 +749,171 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24">
       <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="4">
         <v>1</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="24">
       <c r="A10" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24">
-      <c r="A11" s="4" t="s">
-        <v>53</v>
+    <row r="11" spans="1:4" ht="36">
+      <c r="A11" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="36">
       <c r="A12" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="36">
-      <c r="A13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="5"/>
+    <row r="13" spans="1:4" ht="24">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="C13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="24">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="36">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="C15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="36">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B16" s="5"/>
       <c r="C16" s="4">
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="36">
       <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="48">
+      <c r="A18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="36">
-      <c r="A18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="C18" s="4">
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="36">
       <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C19" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="48">
       <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="48">
+    <row r="21" spans="1:7" ht="24">
       <c r="A21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="C21" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="36">
-      <c r="A22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="48">
-      <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="24">
-      <c r="A24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="G26" s="7"/>
@@ -974,18 +923,18 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B14" r:id="rId5"/>
-    <hyperlink ref="B16" r:id="rId6"/>
-    <hyperlink ref="B22" r:id="rId7"/>
-    <hyperlink ref="B24" r:id="rId8"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B13" r:id="rId5"/>
+    <hyperlink ref="B15" r:id="rId6"/>
+    <hyperlink ref="B19" r:id="rId7"/>
+    <hyperlink ref="B21" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>

--- a/CFO_BODYSEQ/documentation/CFO BODYSEQ 2 button version/BOM.xlsx
+++ b/CFO_BODYSEQ/documentation/CFO BODYSEQ 2 button version/BOM.xlsx
@@ -126,9 +126,6 @@
     <t>LED resistors</t>
   </si>
   <si>
-    <t>bodyswitch pulldown resistors</t>
-  </si>
-  <si>
     <t>color code: brown, black, red</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>thumbwheel pot</t>
   </si>
   <si>
-    <t>CFO BODYSEQ BILL OF MATERIALS</t>
-  </si>
-  <si>
     <t>IC socket</t>
   </si>
   <si>
@@ -165,10 +159,16 @@
     <t>R11, R12, R13, R14, R15, R16, R17, R18, R19, R20</t>
   </si>
   <si>
-    <t>S1, S2, S3</t>
-  </si>
-  <si>
-    <t>D1, D2, D3, D4, D5, D6, D8, D9, D10</t>
+    <t>S1, S2,</t>
+  </si>
+  <si>
+    <t>CFO BODYSEQ 2 BUTTON VERSION BILL OF MATERIALS</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4, D5, D6, D7, D8, D9, D10</t>
+  </si>
+  <si>
+    <t>bodyswitch pulldown + op amp resistors</t>
   </si>
 </sst>
 </file>
@@ -640,8 +640,8 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -651,7 +651,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24">
@@ -712,13 +712,13 @@
     </row>
     <row r="6" spans="1:4" ht="36">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>27</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="9" spans="1:4" ht="24">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="4">
@@ -763,7 +763,7 @@
     </row>
     <row r="10" spans="1:4" ht="24">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="4">
@@ -772,7 +772,7 @@
     </row>
     <row r="11" spans="1:4" ht="36">
       <c r="A11" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="4">
@@ -781,7 +781,7 @@
     </row>
     <row r="12" spans="1:4" ht="36">
       <c r="A12" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="4">
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="36">
@@ -837,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36">
@@ -845,10 +845,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>34</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="18" spans="1:7" ht="48">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>18</v>
@@ -865,7 +865,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="48">
@@ -894,22 +894,22 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="24">
       <c r="A21" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7">
